--- a/stock_historical_data/1wk/STLTECH.NS.xlsx
+++ b/stock_historical_data/1wk/STLTECH.NS.xlsx
@@ -65551,7 +65551,9 @@
       <c r="P1228" t="n">
         <v>0</v>
       </c>
-      <c r="Q1228" t="inlineStr"/>
+      <c r="Q1228" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/STLTECH.NS.xlsx
+++ b/stock_historical_data/1wk/STLTECH.NS.xlsx
@@ -69293,7 +69293,9 @@
       <c r="Q1229" t="n">
         <v>0</v>
       </c>
-      <c r="R1229" t="inlineStr"/>
+      <c r="R1229" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/STLTECH.NS.xlsx
+++ b/stock_historical_data/1wk/STLTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1229"/>
+  <dimension ref="A1:R1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69297,6 +69297,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>134.7700042724609</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>142</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>133.1999969482422</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>141.0599975585938</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>141.0599975585938</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>16618140</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>138.8000030517578</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>146.5399932861328</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>135.2200012207031</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>136.8999938964844</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>136.8999938964844</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>16953661</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1231" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/STLTECH.NS.xlsx
+++ b/stock_historical_data/1wk/STLTECH.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1231"/>
+  <dimension ref="A1:R1266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -69229,7 +69229,7 @@
         <v>23</v>
       </c>
       <c r="O1228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1228" t="n">
         <v>0</v>
@@ -69349,7 +69349,9 @@
       <c r="Q1230" t="n">
         <v>0</v>
       </c>
-      <c r="R1230" t="inlineStr"/>
+      <c r="R1230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
@@ -69403,7 +69405,1829 @@
       <c r="Q1231" t="n">
         <v>0</v>
       </c>
-      <c r="R1231" t="inlineStr"/>
+      <c r="R1231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>137</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>148.8099975585938</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>136.5599975585938</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>139.0899963378906</v>
+      </c>
+      <c r="F1232" t="inlineStr"/>
+      <c r="G1232" t="n">
+        <v>16138675</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>138.5099945068359</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>148.6999969482422</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>136.1000061035156</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>144.9799957275391</v>
+      </c>
+      <c r="F1233" t="inlineStr"/>
+      <c r="G1233" t="n">
+        <v>17882947</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>146</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>137.0200042724609</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>137.7899932861328</v>
+      </c>
+      <c r="F1234" t="inlineStr"/>
+      <c r="G1234" t="n">
+        <v>22266369</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>137</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>151.3899993896484</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>132.6300048828125</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>147.4900054931641</v>
+      </c>
+      <c r="F1235" t="inlineStr"/>
+      <c r="G1235" t="n">
+        <v>13714180</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1235" t="inlineStr"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>150</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>155.0500030517578</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>134.3500061035156</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>137.9400024414062</v>
+      </c>
+      <c r="F1236" t="inlineStr"/>
+      <c r="G1236" t="n">
+        <v>33980260</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1236" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>133.0099945068359</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>144.8200073242188</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>131.3999938964844</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>140.6199951171875</v>
+      </c>
+      <c r="F1237" t="inlineStr"/>
+      <c r="G1237" t="n">
+        <v>19577732</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1237" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>139</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>140.9199981689453</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>132.6100006103516</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>133.2100067138672</v>
+      </c>
+      <c r="F1238" t="inlineStr"/>
+      <c r="G1238" t="n">
+        <v>6833678</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1238" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>140</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>132.6100006103516</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>138.7799987792969</v>
+      </c>
+      <c r="F1239" t="inlineStr"/>
+      <c r="G1239" t="n">
+        <v>7484508</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1239" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>139.8999938964844</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>141.5500030517578</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>131.6799926757812</v>
+      </c>
+      <c r="F1240" t="inlineStr"/>
+      <c r="G1240" t="n">
+        <v>9030368</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1240" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>131.75</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>128.2700042724609</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>128.5599975585938</v>
+      </c>
+      <c r="F1241" t="inlineStr"/>
+      <c r="G1241" t="n">
+        <v>7591516</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1241" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>129.0500030517578</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>135.4400024414062</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>126.129997253418</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>131.5200042724609</v>
+      </c>
+      <c r="F1242" t="inlineStr"/>
+      <c r="G1242" t="n">
+        <v>7603686</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1242" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1242" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>132.8500061035156</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>133.8899993896484</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>125.870002746582</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>127.9199981689453</v>
+      </c>
+      <c r="F1243" t="inlineStr"/>
+      <c r="G1243" t="n">
+        <v>7269201</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1243" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>128.1000061035156</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>130.8699951171875</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>126.0199966430664</v>
+      </c>
+      <c r="F1244" t="inlineStr"/>
+      <c r="G1244" t="n">
+        <v>5341239</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1244" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>126.0299987792969</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>128.1000061035156</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>120.5599975585938</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>125.0599975585938</v>
+      </c>
+      <c r="F1245" t="inlineStr"/>
+      <c r="G1245" t="n">
+        <v>21445171</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1245" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1245" t="inlineStr"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>125.0599975585938</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>125.6900024414062</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>117.5400009155273</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>120.6600036621094</v>
+      </c>
+      <c r="F1246" t="inlineStr"/>
+      <c r="G1246" t="n">
+        <v>9825894</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1246" t="inlineStr"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>121</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>128.3000030517578</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>119</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>123.2600021362305</v>
+      </c>
+      <c r="F1247" t="inlineStr"/>
+      <c r="G1247" t="n">
+        <v>11314766</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1247" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>123.8000030517578</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>123.8000030517578</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>112.4000015258789</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="F1248" t="inlineStr"/>
+      <c r="G1248" t="n">
+        <v>7368526</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>115.6500015258789</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>120.25</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>113.5500030517578</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>119.4100036621094</v>
+      </c>
+      <c r="F1249" t="inlineStr"/>
+      <c r="G1249" t="n">
+        <v>8177238</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>119.9000015258789</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>130.75</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>126.2099990844727</v>
+      </c>
+      <c r="F1250" t="inlineStr"/>
+      <c r="G1250" t="n">
+        <v>14408191</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>116.5199966430664</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>118.2600021362305</v>
+      </c>
+      <c r="F1251" t="inlineStr"/>
+      <c r="G1251" t="n">
+        <v>9885305</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>118.1999969482422</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>119</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>112.75</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>114.0299987792969</v>
+      </c>
+      <c r="F1252" t="inlineStr"/>
+      <c r="G1252" t="n">
+        <v>3833386</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>119.6500015258789</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>114.2699966430664</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>117.9300003051758</v>
+      </c>
+      <c r="F1253" t="inlineStr"/>
+      <c r="G1253" t="n">
+        <v>4586935</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>118</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>123.9000015258789</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>116</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>123.2200012207031</v>
+      </c>
+      <c r="F1254" t="inlineStr"/>
+      <c r="G1254" t="n">
+        <v>10163117</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1254" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1254" t="inlineStr"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>123.1399993896484</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>127.8000030517578</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>118.3199996948242</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>120.5899963378906</v>
+      </c>
+      <c r="F1255" t="inlineStr"/>
+      <c r="G1255" t="n">
+        <v>9146274</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1255" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1255" t="inlineStr"/>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>120.9499969482422</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>126.8899993896484</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>117.3499984741211</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>118.3099975585938</v>
+      </c>
+      <c r="F1256" t="inlineStr"/>
+      <c r="G1256" t="n">
+        <v>8641292</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1256" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1256" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>120.2900009155273</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>115.0699996948242</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>115.879997253418</v>
+      </c>
+      <c r="F1257" t="inlineStr"/>
+      <c r="G1257" t="n">
+        <v>2577295</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1257" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>115.870002746582</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>118.6399993896484</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>113.3199996948242</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>116.5599975585938</v>
+      </c>
+      <c r="F1258" t="inlineStr"/>
+      <c r="G1258" t="n">
+        <v>3249957</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1258" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>116.9000015258789</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>116.9000015258789</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>106.4800033569336</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>111.7300033569336</v>
+      </c>
+      <c r="F1259" t="inlineStr"/>
+      <c r="G1259" t="n">
+        <v>4775514</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1259" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1259" t="inlineStr"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>109.3600006103516</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>113.3000030517578</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>102.5100021362305</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>111.7600021362305</v>
+      </c>
+      <c r="F1260" t="inlineStr"/>
+      <c r="G1260" t="n">
+        <v>6182535</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1260" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1260" t="inlineStr"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>111</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>111.879997253418</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>105.8899993896484</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>106.3399963378906</v>
+      </c>
+      <c r="F1261" t="inlineStr"/>
+      <c r="G1261" t="n">
+        <v>4675516</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1261" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>104</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>109.1800003051758</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>98.40000152587891</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>108.6600036621094</v>
+      </c>
+      <c r="F1262" t="inlineStr"/>
+      <c r="G1262" t="n">
+        <v>5050478</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1262" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>105.5599975585938</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>109.4499969482422</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>104.4000015258789</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>105.1999969482422</v>
+      </c>
+      <c r="F1263" t="inlineStr"/>
+      <c r="G1263" t="n">
+        <v>3316993</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1263" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>105.0500030517578</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>106.4000015258789</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>95.15000152587891</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>96.30000305175781</v>
+      </c>
+      <c r="F1264" t="inlineStr"/>
+      <c r="G1264" t="n">
+        <v>5520371</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1264" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>96.30000305175781</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>99.90000152587891</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>92.09999847412109</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>92.83999633789062</v>
+      </c>
+      <c r="F1265" t="inlineStr"/>
+      <c r="G1265" t="n">
+        <v>6530570</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1265" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>92.44999694824219</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>85.51999664306641</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>86.22000122070312</v>
+      </c>
+      <c r="F1266" t="inlineStr"/>
+      <c r="G1266" t="n">
+        <v>4351975</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1266" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/STLTECH.NS.xlsx
+++ b/stock_historical_data/1wk/STLTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1266"/>
+  <dimension ref="A1:R1275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69459,7 +69459,9 @@
       <c r="Q1232" t="n">
         <v>0</v>
       </c>
-      <c r="R1232" t="inlineStr"/>
+      <c r="R1232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
@@ -69511,7 +69513,9 @@
       <c r="Q1233" t="n">
         <v>0</v>
       </c>
-      <c r="R1233" t="inlineStr"/>
+      <c r="R1233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
@@ -69563,7 +69567,9 @@
       <c r="Q1234" t="n">
         <v>1</v>
       </c>
-      <c r="R1234" t="inlineStr"/>
+      <c r="R1234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
@@ -69615,7 +69621,9 @@
       <c r="Q1235" t="n">
         <v>0</v>
       </c>
-      <c r="R1235" t="inlineStr"/>
+      <c r="R1235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
@@ -69667,7 +69675,9 @@
       <c r="Q1236" t="n">
         <v>0</v>
       </c>
-      <c r="R1236" t="inlineStr"/>
+      <c r="R1236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
@@ -69719,7 +69729,9 @@
       <c r="Q1237" t="n">
         <v>0</v>
       </c>
-      <c r="R1237" t="inlineStr"/>
+      <c r="R1237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
@@ -69771,7 +69783,9 @@
       <c r="Q1238" t="n">
         <v>0</v>
       </c>
-      <c r="R1238" t="inlineStr"/>
+      <c r="R1238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
@@ -69823,7 +69837,9 @@
       <c r="Q1239" t="n">
         <v>0</v>
       </c>
-      <c r="R1239" t="inlineStr"/>
+      <c r="R1239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1240">
       <c r="A1240" s="2" t="n">
@@ -69875,7 +69891,9 @@
       <c r="Q1240" t="n">
         <v>0</v>
       </c>
-      <c r="R1240" t="inlineStr"/>
+      <c r="R1240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1241">
       <c r="A1241" s="2" t="n">
@@ -69927,7 +69945,9 @@
       <c r="Q1241" t="n">
         <v>0</v>
       </c>
-      <c r="R1241" t="inlineStr"/>
+      <c r="R1241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1242">
       <c r="A1242" s="2" t="n">
@@ -69979,7 +69999,9 @@
       <c r="Q1242" t="n">
         <v>2</v>
       </c>
-      <c r="R1242" t="inlineStr"/>
+      <c r="R1242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" s="2" t="n">
@@ -70031,7 +70053,9 @@
       <c r="Q1243" t="n">
         <v>0</v>
       </c>
-      <c r="R1243" t="inlineStr"/>
+      <c r="R1243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1244">
       <c r="A1244" s="2" t="n">
@@ -70083,7 +70107,9 @@
       <c r="Q1244" t="n">
         <v>0</v>
       </c>
-      <c r="R1244" t="inlineStr"/>
+      <c r="R1244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1245">
       <c r="A1245" s="2" t="n">
@@ -70135,7 +70161,9 @@
       <c r="Q1245" t="n">
         <v>0</v>
       </c>
-      <c r="R1245" t="inlineStr"/>
+      <c r="R1245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1246">
       <c r="A1246" s="2" t="n">
@@ -70187,7 +70215,9 @@
       <c r="Q1246" t="n">
         <v>0</v>
       </c>
-      <c r="R1246" t="inlineStr"/>
+      <c r="R1246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1247">
       <c r="A1247" s="2" t="n">
@@ -70239,7 +70269,9 @@
       <c r="Q1247" t="n">
         <v>0</v>
       </c>
-      <c r="R1247" t="inlineStr"/>
+      <c r="R1247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1248">
       <c r="A1248" s="2" t="n">
@@ -70291,7 +70323,9 @@
       <c r="Q1248" t="n">
         <v>0</v>
       </c>
-      <c r="R1248" t="inlineStr"/>
+      <c r="R1248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1249">
       <c r="A1249" s="2" t="n">
@@ -70343,7 +70377,9 @@
       <c r="Q1249" t="n">
         <v>0</v>
       </c>
-      <c r="R1249" t="inlineStr"/>
+      <c r="R1249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1250">
       <c r="A1250" s="2" t="n">
@@ -70395,7 +70431,9 @@
       <c r="Q1250" t="n">
         <v>0</v>
       </c>
-      <c r="R1250" t="inlineStr"/>
+      <c r="R1250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" s="2" t="n">
@@ -70447,7 +70485,9 @@
       <c r="Q1251" t="n">
         <v>0</v>
       </c>
-      <c r="R1251" t="inlineStr"/>
+      <c r="R1251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1252">
       <c r="A1252" s="2" t="n">
@@ -70499,7 +70539,9 @@
       <c r="Q1252" t="n">
         <v>0</v>
       </c>
-      <c r="R1252" t="inlineStr"/>
+      <c r="R1252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1253">
       <c r="A1253" s="2" t="n">
@@ -70551,7 +70593,9 @@
       <c r="Q1253" t="n">
         <v>0</v>
       </c>
-      <c r="R1253" t="inlineStr"/>
+      <c r="R1253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1254">
       <c r="A1254" s="2" t="n">
@@ -70603,7 +70647,9 @@
       <c r="Q1254" t="n">
         <v>1</v>
       </c>
-      <c r="R1254" t="inlineStr"/>
+      <c r="R1254" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1255">
       <c r="A1255" s="2" t="n">
@@ -70655,7 +70701,9 @@
       <c r="Q1255" t="n">
         <v>0</v>
       </c>
-      <c r="R1255" t="inlineStr"/>
+      <c r="R1255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1256">
       <c r="A1256" s="2" t="n">
@@ -70707,7 +70755,9 @@
       <c r="Q1256" t="n">
         <v>2</v>
       </c>
-      <c r="R1256" t="inlineStr"/>
+      <c r="R1256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1257">
       <c r="A1257" s="2" t="n">
@@ -70759,7 +70809,9 @@
       <c r="Q1257" t="n">
         <v>0</v>
       </c>
-      <c r="R1257" t="inlineStr"/>
+      <c r="R1257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1258">
       <c r="A1258" s="2" t="n">
@@ -70811,7 +70863,9 @@
       <c r="Q1258" t="n">
         <v>0</v>
       </c>
-      <c r="R1258" t="inlineStr"/>
+      <c r="R1258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1259">
       <c r="A1259" s="2" t="n">
@@ -70863,7 +70917,9 @@
       <c r="Q1259" t="n">
         <v>0</v>
       </c>
-      <c r="R1259" t="inlineStr"/>
+      <c r="R1259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1260">
       <c r="A1260" s="2" t="n">
@@ -70915,7 +70971,9 @@
       <c r="Q1260" t="n">
         <v>0</v>
       </c>
-      <c r="R1260" t="inlineStr"/>
+      <c r="R1260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1261">
       <c r="A1261" s="2" t="n">
@@ -70967,7 +71025,9 @@
       <c r="Q1261" t="n">
         <v>0</v>
       </c>
-      <c r="R1261" t="inlineStr"/>
+      <c r="R1261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1262">
       <c r="A1262" s="2" t="n">
@@ -71019,7 +71079,9 @@
       <c r="Q1262" t="n">
         <v>0</v>
       </c>
-      <c r="R1262" t="inlineStr"/>
+      <c r="R1262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" s="2" t="n">
@@ -71071,7 +71133,9 @@
       <c r="Q1263" t="n">
         <v>0</v>
       </c>
-      <c r="R1263" t="inlineStr"/>
+      <c r="R1263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1264">
       <c r="A1264" s="2" t="n">
@@ -71123,7 +71187,9 @@
       <c r="Q1264" t="n">
         <v>0</v>
       </c>
-      <c r="R1264" t="inlineStr"/>
+      <c r="R1264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1265">
       <c r="A1265" s="2" t="n">
@@ -71175,7 +71241,9 @@
       <c r="Q1265" t="n">
         <v>0</v>
       </c>
-      <c r="R1265" t="inlineStr"/>
+      <c r="R1265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" s="2" t="n">
@@ -71227,7 +71295,477 @@
       <c r="Q1266" t="n">
         <v>0</v>
       </c>
-      <c r="R1266" t="inlineStr"/>
+      <c r="R1266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>87.15000152587891</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>87.66000366210938</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>85.63999938964844</v>
+      </c>
+      <c r="F1267" t="inlineStr"/>
+      <c r="G1267" t="n">
+        <v>16112971</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>86</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>86.73999786376953</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>79.41000366210938</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>79.88999938964844</v>
+      </c>
+      <c r="F1268" t="inlineStr"/>
+      <c r="G1268" t="n">
+        <v>9709548</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1268" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>89.76000213623047</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>77.41000366210938</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>86.70999908447266</v>
+      </c>
+      <c r="F1269" t="inlineStr"/>
+      <c r="G1269" t="n">
+        <v>16042204</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>88.44000244140625</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>80.91999816894531</v>
+      </c>
+      <c r="F1270" t="inlineStr"/>
+      <c r="G1270" t="n">
+        <v>16807806</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1270" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>80.91999816894531</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>85.94000244140625</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>80</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>80.51000213623047</v>
+      </c>
+      <c r="F1271" t="inlineStr"/>
+      <c r="G1271" t="n">
+        <v>6382588</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1271" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>77</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>82.19999694824219</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>72.09999847412109</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>81.66999816894531</v>
+      </c>
+      <c r="F1272" t="inlineStr"/>
+      <c r="G1272" t="n">
+        <v>7682401</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1272" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>81.66999816894531</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>85.88999938964844</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>81.66999816894531</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>84.01000213623047</v>
+      </c>
+      <c r="F1273" t="inlineStr"/>
+      <c r="G1273" t="n">
+        <v>5369388</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1273" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>84.90000152587891</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>88.45999908447266</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>58.86000061035156</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>68.30000305175781</v>
+      </c>
+      <c r="F1274" t="inlineStr"/>
+      <c r="G1274" t="n">
+        <v>7867348</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1274" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>68.69999694824219</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>69.90000152587891</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>61.63000106811523</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>62.40000152587891</v>
+      </c>
+      <c r="F1275" t="inlineStr"/>
+      <c r="G1275" t="n">
+        <v>3201705</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1275" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1275" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
